--- a/dados/_ALVSalaExercicio.xlsx
+++ b/dados/_ALVSalaExercicio.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -284,6 +284,9 @@
   <x:si>
     <x:t xml:space="preserve">18</x:t>
   </x:si>
+  <x:si>
+    <x:t xml:space="preserve">31</x:t>
+  </x:si>
 </x:sst>
 </file>
 
@@ -379,8 +382,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AK485" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:AK485"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AK540" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:AK540"/>
   <x:tableColumns count="37">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Hora de início" dataDxfId="3"/>
@@ -32327,11 +32330,3588 @@
       <x:c r="AJ485"/>
       <x:c r="AK485" s="10" t="s"/>
     </x:row>
+    <x:row r="486" hidden="0">
+      <x:c r="A486">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="B486" s="2">
+        <x:v>43865.3750115741</x:v>
+      </x:c>
+      <x:c r="C486" s="2">
+        <x:v>43865.3754513889</x:v>
+      </x:c>
+      <x:c r="D486" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E486" s="10" t="s"/>
+      <x:c r="F486"/>
+      <x:c r="G486" s="10" t="s"/>
+      <x:c r="H486" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I486"/>
+      <x:c r="J486" s="10" t="s"/>
+      <x:c r="K486" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L486"/>
+      <x:c r="M486" s="10" t="s"/>
+      <x:c r="N486" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O486"/>
+      <x:c r="P486" s="10" t="s"/>
+      <x:c r="Q486" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="R486"/>
+      <x:c r="S486" s="10" t="s"/>
+      <x:c r="T486" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="U486"/>
+      <x:c r="V486" s="10" t="s"/>
+      <x:c r="W486" s="10" t="s"/>
+      <x:c r="X486"/>
+      <x:c r="Y486" s="10" t="s"/>
+      <x:c r="Z486" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA486"/>
+      <x:c r="AB486" s="10" t="s"/>
+      <x:c r="AC486" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD486"/>
+      <x:c r="AE486" s="10" t="s"/>
+      <x:c r="AF486" s="10" t="s"/>
+      <x:c r="AG486"/>
+      <x:c r="AH486" s="10" t="s"/>
+      <x:c r="AI486" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AJ486"/>
+      <x:c r="AK486" s="10" t="s"/>
+    </x:row>
+    <x:row r="487" hidden="0">
+      <x:c r="A487">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="B487" s="2">
+        <x:v>43865.417337963</x:v>
+      </x:c>
+      <x:c r="C487" s="2">
+        <x:v>43865.4180324074</x:v>
+      </x:c>
+      <x:c r="D487" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E487" s="10" t="s"/>
+      <x:c r="F487"/>
+      <x:c r="G487" s="10" t="s"/>
+      <x:c r="H487" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I487"/>
+      <x:c r="J487" s="10" t="s"/>
+      <x:c r="K487" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="L487"/>
+      <x:c r="M487" s="10" t="s"/>
+      <x:c r="N487" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O487"/>
+      <x:c r="P487" s="10" t="s"/>
+      <x:c r="Q487" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R487"/>
+      <x:c r="S487" s="10" t="s"/>
+      <x:c r="T487" s="7" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="U487"/>
+      <x:c r="V487" s="10" t="s"/>
+      <x:c r="W487" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X487"/>
+      <x:c r="Y487" s="10" t="s"/>
+      <x:c r="Z487" s="10" t="s"/>
+      <x:c r="AA487"/>
+      <x:c r="AB487" s="10" t="s"/>
+      <x:c r="AC487" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD487"/>
+      <x:c r="AE487" s="10" t="s"/>
+      <x:c r="AF487" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG487"/>
+      <x:c r="AH487" s="10" t="s"/>
+      <x:c r="AI487" s="10" t="s"/>
+      <x:c r="AJ487"/>
+      <x:c r="AK487" s="10" t="s"/>
+    </x:row>
+    <x:row r="488" hidden="0">
+      <x:c r="A488">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="B488" s="2">
+        <x:v>43865.502349537</x:v>
+      </x:c>
+      <x:c r="C488" s="2">
+        <x:v>43865.5051157407</x:v>
+      </x:c>
+      <x:c r="D488" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E488" s="10" t="s"/>
+      <x:c r="F488"/>
+      <x:c r="G488" s="10" t="s"/>
+      <x:c r="H488" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I488"/>
+      <x:c r="J488" s="10" t="s"/>
+      <x:c r="K488" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L488"/>
+      <x:c r="M488" s="10" t="s"/>
+      <x:c r="N488" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O488"/>
+      <x:c r="P488" s="10" t="s"/>
+      <x:c r="Q488" s="7" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="R488"/>
+      <x:c r="S488" s="10" t="s"/>
+      <x:c r="T488" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="U488"/>
+      <x:c r="V488" s="10" t="s"/>
+      <x:c r="W488" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X488"/>
+      <x:c r="Y488" s="10" t="s"/>
+      <x:c r="Z488" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA488"/>
+      <x:c r="AB488" s="10" t="s"/>
+      <x:c r="AC488" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD488"/>
+      <x:c r="AE488" s="10" t="s"/>
+      <x:c r="AF488" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG488"/>
+      <x:c r="AH488" s="10" t="s"/>
+      <x:c r="AI488" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ488"/>
+      <x:c r="AK488" s="10" t="s"/>
+    </x:row>
+    <x:row r="489" hidden="0">
+      <x:c r="A489">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="B489" s="2">
+        <x:v>43865.5412268518</x:v>
+      </x:c>
+      <x:c r="C489" s="2">
+        <x:v>43865.5415740741</x:v>
+      </x:c>
+      <x:c r="D489" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E489" s="10" t="s"/>
+      <x:c r="F489"/>
+      <x:c r="G489" s="10" t="s"/>
+      <x:c r="H489" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I489"/>
+      <x:c r="J489" s="10" t="s"/>
+      <x:c r="K489" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L489"/>
+      <x:c r="M489" s="10" t="s"/>
+      <x:c r="N489" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O489"/>
+      <x:c r="P489" s="10" t="s"/>
+      <x:c r="Q489" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="R489"/>
+      <x:c r="S489" s="10" t="s"/>
+      <x:c r="T489" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U489"/>
+      <x:c r="V489" s="10" t="s"/>
+      <x:c r="W489" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X489"/>
+      <x:c r="Y489" s="10" t="s"/>
+      <x:c r="Z489" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA489"/>
+      <x:c r="AB489" s="10" t="s"/>
+      <x:c r="AC489" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AD489"/>
+      <x:c r="AE489" s="10" t="s"/>
+      <x:c r="AF489" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AG489"/>
+      <x:c r="AH489" s="10" t="s"/>
+      <x:c r="AI489" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ489"/>
+      <x:c r="AK489" s="10" t="s"/>
+    </x:row>
+    <x:row r="490" hidden="0">
+      <x:c r="A490">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="B490" s="2">
+        <x:v>43865.5840740741</x:v>
+      </x:c>
+      <x:c r="C490" s="2">
+        <x:v>43865.5845138889</x:v>
+      </x:c>
+      <x:c r="D490" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E490" s="10" t="s"/>
+      <x:c r="F490"/>
+      <x:c r="G490" s="10" t="s"/>
+      <x:c r="H490" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I490"/>
+      <x:c r="J490" s="10" t="s"/>
+      <x:c r="K490" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L490"/>
+      <x:c r="M490" s="10" t="s"/>
+      <x:c r="N490" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O490"/>
+      <x:c r="P490" s="10" t="s"/>
+      <x:c r="Q490" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R490"/>
+      <x:c r="S490" s="10" t="s"/>
+      <x:c r="T490" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U490"/>
+      <x:c r="V490" s="10" t="s"/>
+      <x:c r="W490" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X490"/>
+      <x:c r="Y490" s="10" t="s"/>
+      <x:c r="Z490" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA490"/>
+      <x:c r="AB490" s="10" t="s"/>
+      <x:c r="AC490" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD490"/>
+      <x:c r="AE490" s="10" t="s"/>
+      <x:c r="AF490" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AG490"/>
+      <x:c r="AH490" s="10" t="s"/>
+      <x:c r="AI490" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ490"/>
+      <x:c r="AK490" s="10" t="s"/>
+    </x:row>
+    <x:row r="491" hidden="0">
+      <x:c r="A491">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="B491" s="2">
+        <x:v>43865.6234722222</x:v>
+      </x:c>
+      <x:c r="C491" s="2">
+        <x:v>43865.6238773148</x:v>
+      </x:c>
+      <x:c r="D491" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E491" s="10" t="s"/>
+      <x:c r="F491"/>
+      <x:c r="G491" s="10" t="s"/>
+      <x:c r="H491" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I491"/>
+      <x:c r="J491" s="10" t="s"/>
+      <x:c r="K491" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="L491"/>
+      <x:c r="M491" s="10" t="s"/>
+      <x:c r="N491" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O491"/>
+      <x:c r="P491" s="10" t="s"/>
+      <x:c r="Q491" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R491"/>
+      <x:c r="S491" s="10" t="s"/>
+      <x:c r="T491" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U491"/>
+      <x:c r="V491" s="10" t="s"/>
+      <x:c r="W491" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X491"/>
+      <x:c r="Y491" s="10" t="s"/>
+      <x:c r="Z491" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA491"/>
+      <x:c r="AB491" s="10" t="s"/>
+      <x:c r="AC491" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD491"/>
+      <x:c r="AE491" s="10" t="s"/>
+      <x:c r="AF491" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG491"/>
+      <x:c r="AH491" s="10" t="s"/>
+      <x:c r="AI491" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ491"/>
+      <x:c r="AK491" s="10" t="s"/>
+    </x:row>
+    <x:row r="492" hidden="0">
+      <x:c r="A492">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c r="B492" s="2">
+        <x:v>43865.7089583333</x:v>
+      </x:c>
+      <x:c r="C492" s="2">
+        <x:v>43865.7096527778</x:v>
+      </x:c>
+      <x:c r="D492" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E492" s="10" t="s"/>
+      <x:c r="F492"/>
+      <x:c r="G492" s="10" t="s"/>
+      <x:c r="H492" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I492"/>
+      <x:c r="J492" s="10" t="s"/>
+      <x:c r="K492" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L492"/>
+      <x:c r="M492" s="10" t="s"/>
+      <x:c r="N492" s="10" t="s"/>
+      <x:c r="O492"/>
+      <x:c r="P492" s="10" t="s"/>
+      <x:c r="Q492" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R492"/>
+      <x:c r="S492" s="10" t="s"/>
+      <x:c r="T492" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U492"/>
+      <x:c r="V492" s="10" t="s"/>
+      <x:c r="W492" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X492"/>
+      <x:c r="Y492" s="10" t="s"/>
+      <x:c r="Z492" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA492"/>
+      <x:c r="AB492" s="10" t="s"/>
+      <x:c r="AC492" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD492"/>
+      <x:c r="AE492" s="10" t="s"/>
+      <x:c r="AF492" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG492"/>
+      <x:c r="AH492" s="10" t="s"/>
+      <x:c r="AI492" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AJ492"/>
+      <x:c r="AK492" s="10" t="s"/>
+    </x:row>
+    <x:row r="493" hidden="0">
+      <x:c r="A493">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="B493" s="2">
+        <x:v>43865.7670833333</x:v>
+      </x:c>
+      <x:c r="C493" s="2">
+        <x:v>43865.7689930556</x:v>
+      </x:c>
+      <x:c r="D493" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E493" s="10" t="s"/>
+      <x:c r="F493"/>
+      <x:c r="G493" s="10" t="s"/>
+      <x:c r="H493" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I493"/>
+      <x:c r="J493" s="10" t="s"/>
+      <x:c r="K493" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="L493"/>
+      <x:c r="M493" s="10" t="s"/>
+      <x:c r="N493" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="O493"/>
+      <x:c r="P493" s="10" t="s"/>
+      <x:c r="Q493" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="R493"/>
+      <x:c r="S493" s="10" t="s"/>
+      <x:c r="T493" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U493"/>
+      <x:c r="V493" s="10" t="s"/>
+      <x:c r="W493" s="10" t="s"/>
+      <x:c r="X493"/>
+      <x:c r="Y493" s="10" t="s"/>
+      <x:c r="Z493" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA493"/>
+      <x:c r="AB493" s="10" t="s"/>
+      <x:c r="AC493" s="10" t="s"/>
+      <x:c r="AD493"/>
+      <x:c r="AE493" s="10" t="s"/>
+      <x:c r="AF493" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AG493"/>
+      <x:c r="AH493" s="10" t="s"/>
+      <x:c r="AI493" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ493"/>
+      <x:c r="AK493" s="10" t="s"/>
+    </x:row>
+    <x:row r="494" hidden="0">
+      <x:c r="A494">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="B494" s="2">
+        <x:v>43865.7921180556</x:v>
+      </x:c>
+      <x:c r="C494" s="2">
+        <x:v>43865.7928356482</x:v>
+      </x:c>
+      <x:c r="D494" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E494" s="10" t="s"/>
+      <x:c r="F494"/>
+      <x:c r="G494" s="10" t="s"/>
+      <x:c r="H494" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I494"/>
+      <x:c r="J494" s="10" t="s"/>
+      <x:c r="K494" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L494"/>
+      <x:c r="M494" s="10" t="s"/>
+      <x:c r="N494" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O494"/>
+      <x:c r="P494" s="10" t="s"/>
+      <x:c r="Q494" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R494"/>
+      <x:c r="S494" s="10" t="s"/>
+      <x:c r="T494" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U494"/>
+      <x:c r="V494" s="10" t="s"/>
+      <x:c r="W494" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X494"/>
+      <x:c r="Y494" s="10" t="s"/>
+      <x:c r="Z494" s="10" t="s"/>
+      <x:c r="AA494"/>
+      <x:c r="AB494" s="10" t="s"/>
+      <x:c r="AC494" s="10" t="s"/>
+      <x:c r="AD494"/>
+      <x:c r="AE494" s="10" t="s"/>
+      <x:c r="AF494" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AG494"/>
+      <x:c r="AH494" s="10" t="s"/>
+      <x:c r="AI494" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ494"/>
+      <x:c r="AK494" s="10" t="s"/>
+    </x:row>
+    <x:row r="495" hidden="0">
+      <x:c r="A495">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="B495" s="2">
+        <x:v>43865.7928587963</x:v>
+      </x:c>
+      <x:c r="C495" s="2">
+        <x:v>43865.7946412037</x:v>
+      </x:c>
+      <x:c r="D495" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E495" s="10" t="s"/>
+      <x:c r="F495"/>
+      <x:c r="G495" s="10" t="s"/>
+      <x:c r="H495" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I495"/>
+      <x:c r="J495" s="10" t="s"/>
+      <x:c r="K495" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="L495"/>
+      <x:c r="M495" s="10" t="s"/>
+      <x:c r="N495" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O495"/>
+      <x:c r="P495" s="10" t="s"/>
+      <x:c r="Q495" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="R495"/>
+      <x:c r="S495" s="10" t="s"/>
+      <x:c r="T495" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="U495"/>
+      <x:c r="V495" s="10" t="s"/>
+      <x:c r="W495" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X495"/>
+      <x:c r="Y495" s="10" t="s"/>
+      <x:c r="Z495" s="10" t="s"/>
+      <x:c r="AA495"/>
+      <x:c r="AB495" s="10" t="s"/>
+      <x:c r="AC495" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD495"/>
+      <x:c r="AE495" s="10" t="s"/>
+      <x:c r="AF495" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG495"/>
+      <x:c r="AH495" s="10" t="s"/>
+      <x:c r="AI495" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ495"/>
+      <x:c r="AK495" s="10" t="s"/>
+    </x:row>
+    <x:row r="496" hidden="0">
+      <x:c r="A496">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="B496" s="2">
+        <x:v>43865.8757175926</x:v>
+      </x:c>
+      <x:c r="C496" s="2">
+        <x:v>43865.876724537</x:v>
+      </x:c>
+      <x:c r="D496" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E496" s="10" t="s"/>
+      <x:c r="F496"/>
+      <x:c r="G496" s="10" t="s"/>
+      <x:c r="H496" s="3">
+        <x:v>43865</x:v>
+      </x:c>
+      <x:c r="I496"/>
+      <x:c r="J496" s="10" t="s"/>
+      <x:c r="K496" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="L496"/>
+      <x:c r="M496" s="10" t="s"/>
+      <x:c r="N496" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O496"/>
+      <x:c r="P496" s="10" t="s"/>
+      <x:c r="Q496" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="R496"/>
+      <x:c r="S496" s="10" t="s"/>
+      <x:c r="T496" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U496"/>
+      <x:c r="V496" s="10" t="s"/>
+      <x:c r="W496" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X496"/>
+      <x:c r="Y496" s="10" t="s"/>
+      <x:c r="Z496" s="10" t="s"/>
+      <x:c r="AA496"/>
+      <x:c r="AB496" s="10" t="s"/>
+      <x:c r="AC496" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD496"/>
+      <x:c r="AE496" s="10" t="s"/>
+      <x:c r="AF496" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG496"/>
+      <x:c r="AH496" s="10" t="s"/>
+      <x:c r="AI496" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AJ496"/>
+      <x:c r="AK496" s="10" t="s"/>
+    </x:row>
+    <x:row r="497" hidden="0">
+      <x:c r="A497">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="B497" s="2">
+        <x:v>43866.3373032407</x:v>
+      </x:c>
+      <x:c r="C497" s="2">
+        <x:v>43866.3377893518</x:v>
+      </x:c>
+      <x:c r="D497" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E497" s="10" t="s"/>
+      <x:c r="F497"/>
+      <x:c r="G497" s="10" t="s"/>
+      <x:c r="H497" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I497"/>
+      <x:c r="J497" s="10" t="s"/>
+      <x:c r="K497" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L497"/>
+      <x:c r="M497" s="10" t="s"/>
+      <x:c r="N497" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O497"/>
+      <x:c r="P497" s="10" t="s"/>
+      <x:c r="Q497" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R497"/>
+      <x:c r="S497" s="10" t="s"/>
+      <x:c r="T497" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U497"/>
+      <x:c r="V497" s="10" t="s"/>
+      <x:c r="W497" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X497"/>
+      <x:c r="Y497" s="10" t="s"/>
+      <x:c r="Z497" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA497"/>
+      <x:c r="AB497" s="10" t="s"/>
+      <x:c r="AC497" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AD497"/>
+      <x:c r="AE497" s="10" t="s"/>
+      <x:c r="AF497" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG497"/>
+      <x:c r="AH497" s="10" t="s"/>
+      <x:c r="AI497" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ497"/>
+      <x:c r="AK497" s="10" t="s"/>
+    </x:row>
+    <x:row r="498" hidden="0">
+      <x:c r="A498">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="B498" s="2">
+        <x:v>43866.3877546296</x:v>
+      </x:c>
+      <x:c r="C498" s="2">
+        <x:v>43866.3885069444</x:v>
+      </x:c>
+      <x:c r="D498" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E498" s="10" t="s"/>
+      <x:c r="F498"/>
+      <x:c r="G498" s="10" t="s"/>
+      <x:c r="H498" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I498"/>
+      <x:c r="J498" s="10" t="s"/>
+      <x:c r="K498" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L498"/>
+      <x:c r="M498" s="10" t="s"/>
+      <x:c r="N498" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="O498"/>
+      <x:c r="P498" s="10" t="s"/>
+      <x:c r="Q498" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R498"/>
+      <x:c r="S498" s="10" t="s"/>
+      <x:c r="T498" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="U498"/>
+      <x:c r="V498" s="10" t="s"/>
+      <x:c r="W498" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X498"/>
+      <x:c r="Y498" s="10" t="s"/>
+      <x:c r="Z498" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA498"/>
+      <x:c r="AB498" s="10" t="s"/>
+      <x:c r="AC498" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AD498"/>
+      <x:c r="AE498" s="10" t="s"/>
+      <x:c r="AF498" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AG498"/>
+      <x:c r="AH498" s="10" t="s"/>
+      <x:c r="AI498" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ498"/>
+      <x:c r="AK498" s="10" t="s"/>
+    </x:row>
+    <x:row r="499" hidden="0">
+      <x:c r="A499">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="B499" s="2">
+        <x:v>43866.3911458333</x:v>
+      </x:c>
+      <x:c r="C499" s="2">
+        <x:v>43866.4236689815</x:v>
+      </x:c>
+      <x:c r="D499" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E499" s="10" t="s"/>
+      <x:c r="F499"/>
+      <x:c r="G499" s="10" t="s"/>
+      <x:c r="H499" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I499"/>
+      <x:c r="J499" s="10" t="s"/>
+      <x:c r="K499" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="L499"/>
+      <x:c r="M499" s="10" t="s"/>
+      <x:c r="N499" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O499"/>
+      <x:c r="P499" s="10" t="s"/>
+      <x:c r="Q499" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R499"/>
+      <x:c r="S499" s="10" t="s"/>
+      <x:c r="T499" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="U499"/>
+      <x:c r="V499" s="10" t="s"/>
+      <x:c r="W499" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X499"/>
+      <x:c r="Y499" s="10" t="s"/>
+      <x:c r="Z499" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA499"/>
+      <x:c r="AB499" s="10" t="s"/>
+      <x:c r="AC499" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD499"/>
+      <x:c r="AE499" s="10" t="s"/>
+      <x:c r="AF499" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG499"/>
+      <x:c r="AH499" s="10" t="s"/>
+      <x:c r="AI499" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ499"/>
+      <x:c r="AK499" s="10" t="s"/>
+    </x:row>
+    <x:row r="500" hidden="0">
+      <x:c r="A500">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="B500" s="2">
+        <x:v>43866.480150463</x:v>
+      </x:c>
+      <x:c r="C500" s="2">
+        <x:v>43866.4823148148</x:v>
+      </x:c>
+      <x:c r="D500" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E500" s="10" t="s"/>
+      <x:c r="F500"/>
+      <x:c r="G500" s="10" t="s"/>
+      <x:c r="H500" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I500"/>
+      <x:c r="J500" s="10" t="s"/>
+      <x:c r="K500" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L500"/>
+      <x:c r="M500" s="10" t="s"/>
+      <x:c r="N500" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O500"/>
+      <x:c r="P500" s="10" t="s"/>
+      <x:c r="Q500" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R500"/>
+      <x:c r="S500" s="10" t="s"/>
+      <x:c r="T500" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U500"/>
+      <x:c r="V500" s="10" t="s"/>
+      <x:c r="W500" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X500"/>
+      <x:c r="Y500" s="10" t="s"/>
+      <x:c r="Z500" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA500"/>
+      <x:c r="AB500" s="10" t="s"/>
+      <x:c r="AC500" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD500"/>
+      <x:c r="AE500" s="10" t="s"/>
+      <x:c r="AF500" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG500"/>
+      <x:c r="AH500" s="10" t="s"/>
+      <x:c r="AI500" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ500"/>
+      <x:c r="AK500" s="10" t="s"/>
+    </x:row>
+    <x:row r="501" hidden="0">
+      <x:c r="A501">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="B501" s="2">
+        <x:v>43866.5015162037</x:v>
+      </x:c>
+      <x:c r="C501" s="2">
+        <x:v>43866.5019907407</x:v>
+      </x:c>
+      <x:c r="D501" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E501" s="10" t="s"/>
+      <x:c r="F501"/>
+      <x:c r="G501" s="10" t="s"/>
+      <x:c r="H501" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I501"/>
+      <x:c r="J501" s="10" t="s"/>
+      <x:c r="K501" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L501"/>
+      <x:c r="M501" s="10" t="s"/>
+      <x:c r="N501" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O501"/>
+      <x:c r="P501" s="10" t="s"/>
+      <x:c r="Q501" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R501"/>
+      <x:c r="S501" s="10" t="s"/>
+      <x:c r="T501" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="U501"/>
+      <x:c r="V501" s="10" t="s"/>
+      <x:c r="W501" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X501"/>
+      <x:c r="Y501" s="10" t="s"/>
+      <x:c r="Z501" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA501"/>
+      <x:c r="AB501" s="10" t="s"/>
+      <x:c r="AC501" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AD501"/>
+      <x:c r="AE501" s="10" t="s"/>
+      <x:c r="AF501" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG501"/>
+      <x:c r="AH501" s="10" t="s"/>
+      <x:c r="AI501" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ501"/>
+      <x:c r="AK501" s="10" t="s"/>
+    </x:row>
+    <x:row r="502" hidden="0">
+      <x:c r="A502">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c r="B502" s="2">
+        <x:v>43866.5552662037</x:v>
+      </x:c>
+      <x:c r="C502" s="2">
+        <x:v>43866.5575231481</x:v>
+      </x:c>
+      <x:c r="D502" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E502" s="10" t="s"/>
+      <x:c r="F502"/>
+      <x:c r="G502" s="10" t="s"/>
+      <x:c r="H502" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I502"/>
+      <x:c r="J502" s="10" t="s"/>
+      <x:c r="K502" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L502"/>
+      <x:c r="M502" s="10" t="s"/>
+      <x:c r="N502" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O502"/>
+      <x:c r="P502" s="10" t="s"/>
+      <x:c r="Q502" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R502"/>
+      <x:c r="S502" s="10" t="s"/>
+      <x:c r="T502" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U502"/>
+      <x:c r="V502" s="10" t="s"/>
+      <x:c r="W502" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X502"/>
+      <x:c r="Y502" s="10" t="s"/>
+      <x:c r="Z502" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA502"/>
+      <x:c r="AB502" s="10" t="s"/>
+      <x:c r="AC502" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD502"/>
+      <x:c r="AE502" s="10" t="s"/>
+      <x:c r="AF502" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AG502"/>
+      <x:c r="AH502" s="10" t="s"/>
+      <x:c r="AI502" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ502"/>
+      <x:c r="AK502" s="10" t="s"/>
+    </x:row>
+    <x:row r="503" hidden="0">
+      <x:c r="A503">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="B503" s="2">
+        <x:v>43866.5831018519</x:v>
+      </x:c>
+      <x:c r="C503" s="2">
+        <x:v>43866.5835069444</x:v>
+      </x:c>
+      <x:c r="D503" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E503" s="10" t="s"/>
+      <x:c r="F503"/>
+      <x:c r="G503" s="10" t="s"/>
+      <x:c r="H503" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I503"/>
+      <x:c r="J503" s="10" t="s"/>
+      <x:c r="K503" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L503"/>
+      <x:c r="M503" s="10" t="s"/>
+      <x:c r="N503" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O503"/>
+      <x:c r="P503" s="10" t="s"/>
+      <x:c r="Q503" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R503"/>
+      <x:c r="S503" s="10" t="s"/>
+      <x:c r="T503" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U503"/>
+      <x:c r="V503" s="10" t="s"/>
+      <x:c r="W503" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X503"/>
+      <x:c r="Y503" s="10" t="s"/>
+      <x:c r="Z503" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA503"/>
+      <x:c r="AB503" s="10" t="s"/>
+      <x:c r="AC503" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD503"/>
+      <x:c r="AE503" s="10" t="s"/>
+      <x:c r="AF503" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AG503"/>
+      <x:c r="AH503" s="10" t="s"/>
+      <x:c r="AI503" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AJ503"/>
+      <x:c r="AK503" s="10" t="s"/>
+    </x:row>
+    <x:row r="504" hidden="0">
+      <x:c r="A504">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="B504" s="2">
+        <x:v>43866.6435300926</x:v>
+      </x:c>
+      <x:c r="C504" s="2">
+        <x:v>43866.6441782407</x:v>
+      </x:c>
+      <x:c r="D504" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E504" s="10" t="s"/>
+      <x:c r="F504"/>
+      <x:c r="G504" s="10" t="s"/>
+      <x:c r="H504" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I504"/>
+      <x:c r="J504" s="10" t="s"/>
+      <x:c r="K504" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="L504"/>
+      <x:c r="M504" s="10" t="s"/>
+      <x:c r="N504" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O504"/>
+      <x:c r="P504" s="10" t="s"/>
+      <x:c r="Q504" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R504"/>
+      <x:c r="S504" s="10" t="s"/>
+      <x:c r="T504" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="U504"/>
+      <x:c r="V504" s="10" t="s"/>
+      <x:c r="W504" s="10" t="s"/>
+      <x:c r="X504"/>
+      <x:c r="Y504" s="10" t="s"/>
+      <x:c r="Z504" s="10" t="s"/>
+      <x:c r="AA504"/>
+      <x:c r="AB504" s="10" t="s"/>
+      <x:c r="AC504" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD504"/>
+      <x:c r="AE504" s="10" t="s"/>
+      <x:c r="AF504" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG504"/>
+      <x:c r="AH504" s="10" t="s"/>
+      <x:c r="AI504" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AJ504"/>
+      <x:c r="AK504" s="10" t="s"/>
+    </x:row>
+    <x:row r="505" hidden="0">
+      <x:c r="A505">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="B505" s="2">
+        <x:v>43866.6773148148</x:v>
+      </x:c>
+      <x:c r="C505" s="2">
+        <x:v>43866.6776157407</x:v>
+      </x:c>
+      <x:c r="D505" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E505" s="10" t="s"/>
+      <x:c r="F505"/>
+      <x:c r="G505" s="10" t="s"/>
+      <x:c r="H505" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I505"/>
+      <x:c r="J505" s="10" t="s"/>
+      <x:c r="K505" s="10" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="L505"/>
+      <x:c r="M505" s="10" t="s"/>
+      <x:c r="N505" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O505"/>
+      <x:c r="P505" s="10" t="s"/>
+      <x:c r="Q505" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R505"/>
+      <x:c r="S505" s="10" t="s"/>
+      <x:c r="T505" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U505"/>
+      <x:c r="V505" s="10" t="s"/>
+      <x:c r="W505" s="10" t="s"/>
+      <x:c r="X505"/>
+      <x:c r="Y505" s="10" t="s"/>
+      <x:c r="Z505" s="10" t="s"/>
+      <x:c r="AA505"/>
+      <x:c r="AB505" s="10" t="s"/>
+      <x:c r="AC505" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD505"/>
+      <x:c r="AE505" s="10" t="s"/>
+      <x:c r="AF505" s="10" t="s"/>
+      <x:c r="AG505"/>
+      <x:c r="AH505" s="10" t="s"/>
+      <x:c r="AI505" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ505"/>
+      <x:c r="AK505" s="10" t="s"/>
+    </x:row>
+    <x:row r="506" hidden="0">
+      <x:c r="A506">
+        <x:v>505</x:v>
+      </x:c>
+      <x:c r="B506" s="2">
+        <x:v>43866.8837384259</x:v>
+      </x:c>
+      <x:c r="C506" s="2">
+        <x:v>43866.8842592593</x:v>
+      </x:c>
+      <x:c r="D506" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E506" s="10" t="s"/>
+      <x:c r="F506"/>
+      <x:c r="G506" s="10" t="s"/>
+      <x:c r="H506" s="3">
+        <x:v>43866</x:v>
+      </x:c>
+      <x:c r="I506"/>
+      <x:c r="J506" s="10" t="s"/>
+      <x:c r="K506" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="L506"/>
+      <x:c r="M506" s="10" t="s"/>
+      <x:c r="N506" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O506"/>
+      <x:c r="P506" s="10" t="s"/>
+      <x:c r="Q506" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="R506"/>
+      <x:c r="S506" s="10" t="s"/>
+      <x:c r="T506" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U506"/>
+      <x:c r="V506" s="10" t="s"/>
+      <x:c r="W506" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X506"/>
+      <x:c r="Y506" s="10" t="s"/>
+      <x:c r="Z506" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA506"/>
+      <x:c r="AB506" s="10" t="s"/>
+      <x:c r="AC506" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AD506"/>
+      <x:c r="AE506" s="10" t="s"/>
+      <x:c r="AF506" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG506"/>
+      <x:c r="AH506" s="10" t="s"/>
+      <x:c r="AI506" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ506"/>
+      <x:c r="AK506" s="10" t="s"/>
+    </x:row>
+    <x:row r="507" hidden="0">
+      <x:c r="A507">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="B507" s="2">
+        <x:v>43867.3178240741</x:v>
+      </x:c>
+      <x:c r="C507" s="2">
+        <x:v>43867.318587963</x:v>
+      </x:c>
+      <x:c r="D507" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E507" s="10" t="s"/>
+      <x:c r="F507"/>
+      <x:c r="G507" s="10" t="s"/>
+      <x:c r="H507" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I507"/>
+      <x:c r="J507" s="10" t="s"/>
+      <x:c r="K507" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L507"/>
+      <x:c r="M507" s="10" t="s"/>
+      <x:c r="N507" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O507"/>
+      <x:c r="P507" s="10" t="s"/>
+      <x:c r="Q507" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R507"/>
+      <x:c r="S507" s="10" t="s"/>
+      <x:c r="T507" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U507"/>
+      <x:c r="V507" s="10" t="s"/>
+      <x:c r="W507" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X507"/>
+      <x:c r="Y507" s="10" t="s"/>
+      <x:c r="Z507" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA507"/>
+      <x:c r="AB507" s="10" t="s"/>
+      <x:c r="AC507" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AD507"/>
+      <x:c r="AE507" s="10" t="s"/>
+      <x:c r="AF507" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AG507"/>
+      <x:c r="AH507" s="10" t="s"/>
+      <x:c r="AI507" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ507"/>
+      <x:c r="AK507" s="10" t="s"/>
+    </x:row>
+    <x:row r="508" hidden="0">
+      <x:c r="A508">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c r="B508" s="2">
+        <x:v>43867.3331018519</x:v>
+      </x:c>
+      <x:c r="C508" s="2">
+        <x:v>43867.3333680556</x:v>
+      </x:c>
+      <x:c r="D508" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E508" s="10" t="s"/>
+      <x:c r="F508"/>
+      <x:c r="G508" s="10" t="s"/>
+      <x:c r="H508" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I508"/>
+      <x:c r="J508" s="10" t="s"/>
+      <x:c r="K508" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L508"/>
+      <x:c r="M508" s="10" t="s"/>
+      <x:c r="N508" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O508"/>
+      <x:c r="P508" s="10" t="s"/>
+      <x:c r="Q508" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="R508"/>
+      <x:c r="S508" s="10" t="s"/>
+      <x:c r="T508" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U508"/>
+      <x:c r="V508" s="10" t="s"/>
+      <x:c r="W508" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X508"/>
+      <x:c r="Y508" s="10" t="s"/>
+      <x:c r="Z508" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA508"/>
+      <x:c r="AB508" s="10" t="s"/>
+      <x:c r="AC508" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD508"/>
+      <x:c r="AE508" s="10" t="s"/>
+      <x:c r="AF508" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AG508"/>
+      <x:c r="AH508" s="10" t="s"/>
+      <x:c r="AI508" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ508"/>
+      <x:c r="AK508" s="10" t="s"/>
+    </x:row>
+    <x:row r="509" hidden="0">
+      <x:c r="A509">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="B509" s="2">
+        <x:v>43867.4453240741</x:v>
+      </x:c>
+      <x:c r="C509" s="2">
+        <x:v>43867.446087963</x:v>
+      </x:c>
+      <x:c r="D509" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E509" s="10" t="s"/>
+      <x:c r="F509"/>
+      <x:c r="G509" s="10" t="s"/>
+      <x:c r="H509" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I509"/>
+      <x:c r="J509" s="10" t="s"/>
+      <x:c r="K509" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="L509"/>
+      <x:c r="M509" s="10" t="s"/>
+      <x:c r="N509" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O509"/>
+      <x:c r="P509" s="10" t="s"/>
+      <x:c r="Q509" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R509"/>
+      <x:c r="S509" s="10" t="s"/>
+      <x:c r="T509" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U509"/>
+      <x:c r="V509" s="10" t="s"/>
+      <x:c r="W509" s="10" t="s"/>
+      <x:c r="X509"/>
+      <x:c r="Y509" s="10" t="s"/>
+      <x:c r="Z509" s="10" t="s"/>
+      <x:c r="AA509"/>
+      <x:c r="AB509" s="10" t="s"/>
+      <x:c r="AC509" s="10" t="s"/>
+      <x:c r="AD509"/>
+      <x:c r="AE509" s="10" t="s"/>
+      <x:c r="AF509" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG509"/>
+      <x:c r="AH509" s="10" t="s"/>
+      <x:c r="AI509" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AJ509"/>
+      <x:c r="AK509" s="10" t="s"/>
+    </x:row>
+    <x:row r="510" hidden="0">
+      <x:c r="A510">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="B510" s="2">
+        <x:v>43867.5025578704</x:v>
+      </x:c>
+      <x:c r="C510" s="2">
+        <x:v>43867.5034606481</x:v>
+      </x:c>
+      <x:c r="D510" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E510" s="10" t="s"/>
+      <x:c r="F510"/>
+      <x:c r="G510" s="10" t="s"/>
+      <x:c r="H510" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I510"/>
+      <x:c r="J510" s="10" t="s"/>
+      <x:c r="K510" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L510"/>
+      <x:c r="M510" s="10" t="s"/>
+      <x:c r="N510" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O510"/>
+      <x:c r="P510" s="10" t="s"/>
+      <x:c r="Q510" s="7" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="R510"/>
+      <x:c r="S510" s="10" t="s"/>
+      <x:c r="T510" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="U510"/>
+      <x:c r="V510" s="10" t="s"/>
+      <x:c r="W510" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X510"/>
+      <x:c r="Y510" s="10" t="s"/>
+      <x:c r="Z510" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA510"/>
+      <x:c r="AB510" s="10" t="s"/>
+      <x:c r="AC510" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD510"/>
+      <x:c r="AE510" s="10" t="s"/>
+      <x:c r="AF510" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AG510"/>
+      <x:c r="AH510" s="10" t="s"/>
+      <x:c r="AI510" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AJ510"/>
+      <x:c r="AK510" s="10" t="s"/>
+    </x:row>
+    <x:row r="511" hidden="0">
+      <x:c r="A511">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="B511" s="2">
+        <x:v>43867.5449768519</x:v>
+      </x:c>
+      <x:c r="C511" s="2">
+        <x:v>43867.5453587963</x:v>
+      </x:c>
+      <x:c r="D511" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E511" s="10" t="s"/>
+      <x:c r="F511"/>
+      <x:c r="G511" s="10" t="s"/>
+      <x:c r="H511" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I511"/>
+      <x:c r="J511" s="10" t="s"/>
+      <x:c r="K511" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L511"/>
+      <x:c r="M511" s="10" t="s"/>
+      <x:c r="N511" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O511"/>
+      <x:c r="P511" s="10" t="s"/>
+      <x:c r="Q511" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R511"/>
+      <x:c r="S511" s="10" t="s"/>
+      <x:c r="T511" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U511"/>
+      <x:c r="V511" s="10" t="s"/>
+      <x:c r="W511" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X511"/>
+      <x:c r="Y511" s="10" t="s"/>
+      <x:c r="Z511" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA511"/>
+      <x:c r="AB511" s="10" t="s"/>
+      <x:c r="AC511" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD511"/>
+      <x:c r="AE511" s="10" t="s"/>
+      <x:c r="AF511" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AG511"/>
+      <x:c r="AH511" s="10" t="s"/>
+      <x:c r="AI511" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AJ511"/>
+      <x:c r="AK511" s="10" t="s"/>
+    </x:row>
+    <x:row r="512" hidden="0">
+      <x:c r="A512">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="B512" s="2">
+        <x:v>43867.6242939815</x:v>
+      </x:c>
+      <x:c r="C512" s="2">
+        <x:v>43867.6246990741</x:v>
+      </x:c>
+      <x:c r="D512" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E512" s="10" t="s"/>
+      <x:c r="F512"/>
+      <x:c r="G512" s="10" t="s"/>
+      <x:c r="H512" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I512"/>
+      <x:c r="J512" s="10" t="s"/>
+      <x:c r="K512" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="L512"/>
+      <x:c r="M512" s="10" t="s"/>
+      <x:c r="N512" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O512"/>
+      <x:c r="P512" s="10" t="s"/>
+      <x:c r="Q512" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R512"/>
+      <x:c r="S512" s="10" t="s"/>
+      <x:c r="T512" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U512"/>
+      <x:c r="V512" s="10" t="s"/>
+      <x:c r="W512" s="10" t="s"/>
+      <x:c r="X512"/>
+      <x:c r="Y512" s="10" t="s"/>
+      <x:c r="Z512" s="10" t="s"/>
+      <x:c r="AA512"/>
+      <x:c r="AB512" s="10" t="s"/>
+      <x:c r="AC512" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD512"/>
+      <x:c r="AE512" s="10" t="s"/>
+      <x:c r="AF512" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG512"/>
+      <x:c r="AH512" s="10" t="s"/>
+      <x:c r="AI512" s="10" t="s"/>
+      <x:c r="AJ512"/>
+      <x:c r="AK512" s="10" t="s"/>
+    </x:row>
+    <x:row r="513" hidden="0">
+      <x:c r="A513">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B513" s="2">
+        <x:v>43867.7339583333</x:v>
+      </x:c>
+      <x:c r="C513" s="2">
+        <x:v>43867.7540856481</x:v>
+      </x:c>
+      <x:c r="D513" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E513" s="10" t="s"/>
+      <x:c r="F513"/>
+      <x:c r="G513" s="10" t="s"/>
+      <x:c r="H513" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I513"/>
+      <x:c r="J513" s="10" t="s"/>
+      <x:c r="K513" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="L513"/>
+      <x:c r="M513" s="10" t="s"/>
+      <x:c r="N513" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O513"/>
+      <x:c r="P513" s="10" t="s"/>
+      <x:c r="Q513" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="R513"/>
+      <x:c r="S513" s="10" t="s"/>
+      <x:c r="T513" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U513"/>
+      <x:c r="V513" s="10" t="s"/>
+      <x:c r="W513" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X513"/>
+      <x:c r="Y513" s="10" t="s"/>
+      <x:c r="Z513" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA513"/>
+      <x:c r="AB513" s="10" t="s"/>
+      <x:c r="AC513" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD513"/>
+      <x:c r="AE513" s="10" t="s"/>
+      <x:c r="AF513" s="10" t="s"/>
+      <x:c r="AG513"/>
+      <x:c r="AH513" s="10" t="s"/>
+      <x:c r="AI513" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ513"/>
+      <x:c r="AK513" s="10" t="s"/>
+    </x:row>
+    <x:row r="514" hidden="0">
+      <x:c r="A514">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="B514" s="2">
+        <x:v>43867.8718518519</x:v>
+      </x:c>
+      <x:c r="C514" s="2">
+        <x:v>43867.8729282407</x:v>
+      </x:c>
+      <x:c r="D514" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E514" s="10" t="s"/>
+      <x:c r="F514"/>
+      <x:c r="G514" s="10" t="s"/>
+      <x:c r="H514" s="3">
+        <x:v>43867</x:v>
+      </x:c>
+      <x:c r="I514"/>
+      <x:c r="J514" s="10" t="s"/>
+      <x:c r="K514" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="L514"/>
+      <x:c r="M514" s="10" t="s"/>
+      <x:c r="N514" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="O514"/>
+      <x:c r="P514" s="10" t="s"/>
+      <x:c r="Q514" s="7" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="R514"/>
+      <x:c r="S514" s="10" t="s"/>
+      <x:c r="T514" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="U514"/>
+      <x:c r="V514" s="10" t="s"/>
+      <x:c r="W514" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X514"/>
+      <x:c r="Y514" s="10" t="s"/>
+      <x:c r="Z514" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA514"/>
+      <x:c r="AB514" s="10" t="s"/>
+      <x:c r="AC514" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AD514"/>
+      <x:c r="AE514" s="10" t="s"/>
+      <x:c r="AF514" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AG514"/>
+      <x:c r="AH514" s="10" t="s"/>
+      <x:c r="AI514" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ514"/>
+      <x:c r="AK514" s="10" t="s"/>
+    </x:row>
+    <x:row r="515" hidden="0">
+      <x:c r="A515">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="B515" s="2">
+        <x:v>43868.3862384259</x:v>
+      </x:c>
+      <x:c r="C515" s="2">
+        <x:v>43868.3869560185</x:v>
+      </x:c>
+      <x:c r="D515" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E515" s="10" t="s"/>
+      <x:c r="F515"/>
+      <x:c r="G515" s="10" t="s"/>
+      <x:c r="H515" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I515"/>
+      <x:c r="J515" s="10" t="s"/>
+      <x:c r="K515" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L515"/>
+      <x:c r="M515" s="10" t="s"/>
+      <x:c r="N515" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O515"/>
+      <x:c r="P515" s="10" t="s"/>
+      <x:c r="Q515" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R515"/>
+      <x:c r="S515" s="10" t="s"/>
+      <x:c r="T515" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U515"/>
+      <x:c r="V515" s="10" t="s"/>
+      <x:c r="W515" s="10" t="s"/>
+      <x:c r="X515"/>
+      <x:c r="Y515" s="10" t="s"/>
+      <x:c r="Z515" s="10" t="s"/>
+      <x:c r="AA515"/>
+      <x:c r="AB515" s="10" t="s"/>
+      <x:c r="AC515" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD515"/>
+      <x:c r="AE515" s="10" t="s"/>
+      <x:c r="AF515" s="10" t="s"/>
+      <x:c r="AG515"/>
+      <x:c r="AH515" s="10" t="s"/>
+      <x:c r="AI515" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AJ515"/>
+      <x:c r="AK515" s="10" t="s"/>
+    </x:row>
+    <x:row r="516" hidden="0">
+      <x:c r="A516">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="B516" s="2">
+        <x:v>43868.4590162037</x:v>
+      </x:c>
+      <x:c r="C516" s="2">
+        <x:v>43868.4593981481</x:v>
+      </x:c>
+      <x:c r="D516" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E516" s="10" t="s"/>
+      <x:c r="F516"/>
+      <x:c r="G516" s="10" t="s"/>
+      <x:c r="H516" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I516"/>
+      <x:c r="J516" s="10" t="s"/>
+      <x:c r="K516" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L516"/>
+      <x:c r="M516" s="10" t="s"/>
+      <x:c r="N516" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O516"/>
+      <x:c r="P516" s="10" t="s"/>
+      <x:c r="Q516" s="7" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="R516"/>
+      <x:c r="S516" s="10" t="s"/>
+      <x:c r="T516" s="10" t="s"/>
+      <x:c r="U516"/>
+      <x:c r="V516" s="10" t="s"/>
+      <x:c r="W516" s="10" t="s"/>
+      <x:c r="X516"/>
+      <x:c r="Y516" s="10" t="s"/>
+      <x:c r="Z516" s="10" t="s"/>
+      <x:c r="AA516"/>
+      <x:c r="AB516" s="10" t="s"/>
+      <x:c r="AC516" s="10" t="s"/>
+      <x:c r="AD516"/>
+      <x:c r="AE516" s="10" t="s"/>
+      <x:c r="AF516" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG516"/>
+      <x:c r="AH516" s="10" t="s"/>
+      <x:c r="AI516" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ516"/>
+      <x:c r="AK516" s="10" t="s"/>
+    </x:row>
+    <x:row r="517" hidden="0">
+      <x:c r="A517">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="B517" s="2">
+        <x:v>43868.4990393519</x:v>
+      </x:c>
+      <x:c r="C517" s="2">
+        <x:v>43868.5000810185</x:v>
+      </x:c>
+      <x:c r="D517" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E517" s="10" t="s"/>
+      <x:c r="F517"/>
+      <x:c r="G517" s="10" t="s"/>
+      <x:c r="H517" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I517"/>
+      <x:c r="J517" s="10" t="s"/>
+      <x:c r="K517" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L517"/>
+      <x:c r="M517" s="10" t="s"/>
+      <x:c r="N517" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O517"/>
+      <x:c r="P517" s="10" t="s"/>
+      <x:c r="Q517" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="R517"/>
+      <x:c r="S517" s="10" t="s"/>
+      <x:c r="T517" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U517"/>
+      <x:c r="V517" s="10" t="s"/>
+      <x:c r="W517" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X517"/>
+      <x:c r="Y517" s="10" t="s"/>
+      <x:c r="Z517" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA517"/>
+      <x:c r="AB517" s="10" t="s"/>
+      <x:c r="AC517" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD517"/>
+      <x:c r="AE517" s="10" t="s"/>
+      <x:c r="AF517" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AG517"/>
+      <x:c r="AH517" s="10" t="s"/>
+      <x:c r="AI517" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ517"/>
+      <x:c r="AK517" s="10" t="s"/>
+    </x:row>
+    <x:row r="518" hidden="0">
+      <x:c r="A518">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="B518" s="2">
+        <x:v>43868.7205671296</x:v>
+      </x:c>
+      <x:c r="C518" s="2">
+        <x:v>43868.7219212963</x:v>
+      </x:c>
+      <x:c r="D518" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E518" s="10" t="s"/>
+      <x:c r="F518"/>
+      <x:c r="G518" s="10" t="s"/>
+      <x:c r="H518" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I518"/>
+      <x:c r="J518" s="10" t="s"/>
+      <x:c r="K518" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L518"/>
+      <x:c r="M518" s="10" t="s"/>
+      <x:c r="N518" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="O518"/>
+      <x:c r="P518" s="10" t="s"/>
+      <x:c r="Q518" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="R518"/>
+      <x:c r="S518" s="10" t="s"/>
+      <x:c r="T518" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="U518"/>
+      <x:c r="V518" s="10" t="s"/>
+      <x:c r="W518" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X518"/>
+      <x:c r="Y518" s="10" t="s"/>
+      <x:c r="Z518" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA518"/>
+      <x:c r="AB518" s="10" t="s"/>
+      <x:c r="AC518" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD518"/>
+      <x:c r="AE518" s="10" t="s"/>
+      <x:c r="AF518" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AG518"/>
+      <x:c r="AH518" s="10" t="s"/>
+      <x:c r="AI518" s="10" t="s"/>
+      <x:c r="AJ518"/>
+      <x:c r="AK518" s="10" t="s"/>
+    </x:row>
+    <x:row r="519" hidden="0">
+      <x:c r="A519">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="B519" s="2">
+        <x:v>43868.7550578704</x:v>
+      </x:c>
+      <x:c r="C519" s="2">
+        <x:v>43868.7574305556</x:v>
+      </x:c>
+      <x:c r="D519" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E519" s="10" t="s"/>
+      <x:c r="F519"/>
+      <x:c r="G519" s="10" t="s"/>
+      <x:c r="H519" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I519"/>
+      <x:c r="J519" s="10" t="s"/>
+      <x:c r="K519" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="L519"/>
+      <x:c r="M519" s="10" t="s"/>
+      <x:c r="N519" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="O519"/>
+      <x:c r="P519" s="10" t="s"/>
+      <x:c r="Q519" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="R519"/>
+      <x:c r="S519" s="10" t="s"/>
+      <x:c r="T519" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="U519"/>
+      <x:c r="V519" s="10" t="s"/>
+      <x:c r="W519" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X519"/>
+      <x:c r="Y519" s="10" t="s"/>
+      <x:c r="Z519" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA519"/>
+      <x:c r="AB519" s="10" t="s"/>
+      <x:c r="AC519" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AD519"/>
+      <x:c r="AE519" s="10" t="s"/>
+      <x:c r="AF519" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG519"/>
+      <x:c r="AH519" s="10" t="s"/>
+      <x:c r="AI519" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AJ519"/>
+      <x:c r="AK519" s="10" t="s"/>
+    </x:row>
+    <x:row r="520" hidden="0">
+      <x:c r="A520">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="B520" s="2">
+        <x:v>43868.8459027778</x:v>
+      </x:c>
+      <x:c r="C520" s="2">
+        <x:v>43868.8475925926</x:v>
+      </x:c>
+      <x:c r="D520" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E520" s="10" t="s"/>
+      <x:c r="F520"/>
+      <x:c r="G520" s="10" t="s"/>
+      <x:c r="H520" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I520"/>
+      <x:c r="J520" s="10" t="s"/>
+      <x:c r="K520" s="10" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="L520"/>
+      <x:c r="M520" s="10" t="s"/>
+      <x:c r="N520" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="O520"/>
+      <x:c r="P520" s="10" t="s"/>
+      <x:c r="Q520" s="7" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="R520"/>
+      <x:c r="S520" s="10" t="s"/>
+      <x:c r="T520" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U520"/>
+      <x:c r="V520" s="10" t="s"/>
+      <x:c r="W520" s="10" t="s"/>
+      <x:c r="X520"/>
+      <x:c r="Y520" s="10" t="s"/>
+      <x:c r="Z520" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA520"/>
+      <x:c r="AB520" s="10" t="s"/>
+      <x:c r="AC520" s="10" t="s"/>
+      <x:c r="AD520"/>
+      <x:c r="AE520" s="10" t="s"/>
+      <x:c r="AF520" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG520"/>
+      <x:c r="AH520" s="10" t="s"/>
+      <x:c r="AI520" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AJ520"/>
+      <x:c r="AK520" s="10" t="s"/>
+    </x:row>
+    <x:row r="521" hidden="0">
+      <x:c r="A521">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="B521" s="2">
+        <x:v>43868.8550115741</x:v>
+      </x:c>
+      <x:c r="C521" s="2">
+        <x:v>43868.876412037</x:v>
+      </x:c>
+      <x:c r="D521" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E521" s="10" t="s"/>
+      <x:c r="F521"/>
+      <x:c r="G521" s="10" t="s"/>
+      <x:c r="H521" s="3">
+        <x:v>43868</x:v>
+      </x:c>
+      <x:c r="I521"/>
+      <x:c r="J521" s="10" t="s"/>
+      <x:c r="K521" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="L521"/>
+      <x:c r="M521" s="10" t="s"/>
+      <x:c r="N521" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="O521"/>
+      <x:c r="P521" s="10" t="s"/>
+      <x:c r="Q521" s="7" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="R521"/>
+      <x:c r="S521" s="10" t="s"/>
+      <x:c r="T521" s="10" t="s"/>
+      <x:c r="U521"/>
+      <x:c r="V521" s="10" t="s"/>
+      <x:c r="W521" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X521"/>
+      <x:c r="Y521" s="10" t="s"/>
+      <x:c r="Z521" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="AA521"/>
+      <x:c r="AB521" s="10" t="s"/>
+      <x:c r="AC521" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD521"/>
+      <x:c r="AE521" s="10" t="s"/>
+      <x:c r="AF521" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="AG521"/>
+      <x:c r="AH521" s="10" t="s"/>
+      <x:c r="AI521" s="10" t="s"/>
+      <x:c r="AJ521"/>
+      <x:c r="AK521" s="10" t="s"/>
+    </x:row>
+    <x:row r="522" hidden="0">
+      <x:c r="A522">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c r="B522" s="2">
+        <x:v>43869.4341666667</x:v>
+      </x:c>
+      <x:c r="C522" s="2">
+        <x:v>43869.4344444444</x:v>
+      </x:c>
+      <x:c r="D522" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E522" s="10" t="s"/>
+      <x:c r="F522"/>
+      <x:c r="G522" s="10" t="s"/>
+      <x:c r="H522" s="3">
+        <x:v>43869</x:v>
+      </x:c>
+      <x:c r="I522"/>
+      <x:c r="J522" s="10" t="s"/>
+      <x:c r="K522" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L522"/>
+      <x:c r="M522" s="10" t="s"/>
+      <x:c r="N522" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O522"/>
+      <x:c r="P522" s="10" t="s"/>
+      <x:c r="Q522" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R522"/>
+      <x:c r="S522" s="10" t="s"/>
+      <x:c r="T522" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U522"/>
+      <x:c r="V522" s="10" t="s"/>
+      <x:c r="W522" s="10" t="s"/>
+      <x:c r="X522"/>
+      <x:c r="Y522" s="10" t="s"/>
+      <x:c r="Z522" s="10" t="s"/>
+      <x:c r="AA522"/>
+      <x:c r="AB522" s="10" t="s"/>
+      <x:c r="AC522" s="10" t="s"/>
+      <x:c r="AD522"/>
+      <x:c r="AE522" s="10" t="s"/>
+      <x:c r="AF522" s="10" t="s"/>
+      <x:c r="AG522"/>
+      <x:c r="AH522" s="10" t="s"/>
+      <x:c r="AI522" s="10" t="s"/>
+      <x:c r="AJ522"/>
+      <x:c r="AK522" s="10" t="s"/>
+    </x:row>
+    <x:row r="523" hidden="0">
+      <x:c r="A523">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c r="B523" s="2">
+        <x:v>43869.4344675926</x:v>
+      </x:c>
+      <x:c r="C523" s="2">
+        <x:v>43869.4347569444</x:v>
+      </x:c>
+      <x:c r="D523" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E523" s="10" t="s"/>
+      <x:c r="F523"/>
+      <x:c r="G523" s="10" t="s"/>
+      <x:c r="H523" s="3">
+        <x:v>43869</x:v>
+      </x:c>
+      <x:c r="I523"/>
+      <x:c r="J523" s="10" t="s"/>
+      <x:c r="K523" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="L523"/>
+      <x:c r="M523" s="10" t="s"/>
+      <x:c r="N523" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O523"/>
+      <x:c r="P523" s="10" t="s"/>
+      <x:c r="Q523" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R523"/>
+      <x:c r="S523" s="10" t="s"/>
+      <x:c r="T523" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U523"/>
+      <x:c r="V523" s="10" t="s"/>
+      <x:c r="W523" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X523"/>
+      <x:c r="Y523" s="10" t="s"/>
+      <x:c r="Z523" s="10" t="s"/>
+      <x:c r="AA523"/>
+      <x:c r="AB523" s="10" t="s"/>
+      <x:c r="AC523" s="10" t="s"/>
+      <x:c r="AD523"/>
+      <x:c r="AE523" s="10" t="s"/>
+      <x:c r="AF523" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG523"/>
+      <x:c r="AH523" s="10" t="s"/>
+      <x:c r="AI523" s="10" t="s"/>
+      <x:c r="AJ523"/>
+      <x:c r="AK523" s="10" t="s"/>
+    </x:row>
+    <x:row r="524" hidden="0">
+      <x:c r="A524">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="B524" s="2">
+        <x:v>43869.5253587963</x:v>
+      </x:c>
+      <x:c r="C524" s="2">
+        <x:v>43869.5263194444</x:v>
+      </x:c>
+      <x:c r="D524" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E524" s="10" t="s"/>
+      <x:c r="F524"/>
+      <x:c r="G524" s="10" t="s"/>
+      <x:c r="H524" s="3">
+        <x:v>43869</x:v>
+      </x:c>
+      <x:c r="I524"/>
+      <x:c r="J524" s="10" t="s"/>
+      <x:c r="K524" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L524"/>
+      <x:c r="M524" s="10" t="s"/>
+      <x:c r="N524" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="O524"/>
+      <x:c r="P524" s="10" t="s"/>
+      <x:c r="Q524" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R524"/>
+      <x:c r="S524" s="10" t="s"/>
+      <x:c r="T524" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U524"/>
+      <x:c r="V524" s="10" t="s"/>
+      <x:c r="W524" s="10" t="s"/>
+      <x:c r="X524"/>
+      <x:c r="Y524" s="10" t="s"/>
+      <x:c r="Z524" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AA524"/>
+      <x:c r="AB524" s="10" t="s"/>
+      <x:c r="AC524" s="10" t="s"/>
+      <x:c r="AD524"/>
+      <x:c r="AE524" s="10" t="s"/>
+      <x:c r="AF524" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG524"/>
+      <x:c r="AH524" s="10" t="s"/>
+      <x:c r="AI524" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AJ524"/>
+      <x:c r="AK524" s="10" t="s"/>
+    </x:row>
+    <x:row r="525" hidden="0">
+      <x:c r="A525">
+        <x:v>524</x:v>
+      </x:c>
+      <x:c r="B525" s="2">
+        <x:v>43870.4434953704</x:v>
+      </x:c>
+      <x:c r="C525" s="2">
+        <x:v>43870.4442013889</x:v>
+      </x:c>
+      <x:c r="D525" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E525" s="10" t="s"/>
+      <x:c r="F525"/>
+      <x:c r="G525" s="10" t="s"/>
+      <x:c r="H525" s="3">
+        <x:v>43870</x:v>
+      </x:c>
+      <x:c r="I525"/>
+      <x:c r="J525" s="10" t="s"/>
+      <x:c r="K525" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="L525"/>
+      <x:c r="M525" s="10" t="s"/>
+      <x:c r="N525" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O525"/>
+      <x:c r="P525" s="10" t="s"/>
+      <x:c r="Q525" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="R525"/>
+      <x:c r="S525" s="10" t="s"/>
+      <x:c r="T525" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U525"/>
+      <x:c r="V525" s="10" t="s"/>
+      <x:c r="W525" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X525"/>
+      <x:c r="Y525" s="10" t="s"/>
+      <x:c r="Z525" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA525"/>
+      <x:c r="AB525" s="10" t="s"/>
+      <x:c r="AC525" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AD525"/>
+      <x:c r="AE525" s="10" t="s"/>
+      <x:c r="AF525" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AG525"/>
+      <x:c r="AH525" s="10" t="s"/>
+      <x:c r="AI525" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ525"/>
+      <x:c r="AK525" s="10" t="s"/>
+    </x:row>
+    <x:row r="526" hidden="0">
+      <x:c r="A526">
+        <x:v>525</x:v>
+      </x:c>
+      <x:c r="B526" s="2">
+        <x:v>43870.4633564815</x:v>
+      </x:c>
+      <x:c r="C526" s="2">
+        <x:v>43870.4644097222</x:v>
+      </x:c>
+      <x:c r="D526" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E526" s="10" t="s"/>
+      <x:c r="F526"/>
+      <x:c r="G526" s="10" t="s"/>
+      <x:c r="H526" s="3">
+        <x:v>43870</x:v>
+      </x:c>
+      <x:c r="I526"/>
+      <x:c r="J526" s="10" t="s"/>
+      <x:c r="K526" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L526"/>
+      <x:c r="M526" s="10" t="s"/>
+      <x:c r="N526" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O526"/>
+      <x:c r="P526" s="10" t="s"/>
+      <x:c r="Q526" s="7" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="R526"/>
+      <x:c r="S526" s="10" t="s"/>
+      <x:c r="T526" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U526"/>
+      <x:c r="V526" s="10" t="s"/>
+      <x:c r="W526" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X526"/>
+      <x:c r="Y526" s="10" t="s"/>
+      <x:c r="Z526" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA526"/>
+      <x:c r="AB526" s="10" t="s"/>
+      <x:c r="AC526" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD526"/>
+      <x:c r="AE526" s="10" t="s"/>
+      <x:c r="AF526" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AG526"/>
+      <x:c r="AH526" s="10" t="s"/>
+      <x:c r="AI526" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ526"/>
+      <x:c r="AK526" s="10" t="s"/>
+    </x:row>
+    <x:row r="527" hidden="0">
+      <x:c r="A527">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="B527" s="2">
+        <x:v>43871.3345949074</x:v>
+      </x:c>
+      <x:c r="C527" s="2">
+        <x:v>43871.3360069444</x:v>
+      </x:c>
+      <x:c r="D527" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E527" s="10" t="s"/>
+      <x:c r="F527"/>
+      <x:c r="G527" s="10" t="s"/>
+      <x:c r="H527" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I527"/>
+      <x:c r="J527" s="10" t="s"/>
+      <x:c r="K527" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L527"/>
+      <x:c r="M527" s="10" t="s"/>
+      <x:c r="N527" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O527"/>
+      <x:c r="P527" s="10" t="s"/>
+      <x:c r="Q527" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R527"/>
+      <x:c r="S527" s="10" t="s"/>
+      <x:c r="T527" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U527"/>
+      <x:c r="V527" s="10" t="s"/>
+      <x:c r="W527" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X527"/>
+      <x:c r="Y527" s="10" t="s"/>
+      <x:c r="Z527" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA527"/>
+      <x:c r="AB527" s="10" t="s"/>
+      <x:c r="AC527" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AD527"/>
+      <x:c r="AE527" s="10" t="s"/>
+      <x:c r="AF527" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG527"/>
+      <x:c r="AH527" s="10" t="s"/>
+      <x:c r="AI527" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ527"/>
+      <x:c r="AK527" s="10" t="s"/>
+    </x:row>
+    <x:row r="528" hidden="0">
+      <x:c r="A528">
+        <x:v>527</x:v>
+      </x:c>
+      <x:c r="B528" s="2">
+        <x:v>43871.3826041667</x:v>
+      </x:c>
+      <x:c r="C528" s="2">
+        <x:v>43871.3832060185</x:v>
+      </x:c>
+      <x:c r="D528" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E528" s="10" t="s"/>
+      <x:c r="F528"/>
+      <x:c r="G528" s="10" t="s"/>
+      <x:c r="H528" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I528"/>
+      <x:c r="J528" s="10" t="s"/>
+      <x:c r="K528" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L528"/>
+      <x:c r="M528" s="10" t="s"/>
+      <x:c r="N528" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="O528"/>
+      <x:c r="P528" s="10" t="s"/>
+      <x:c r="Q528" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="R528"/>
+      <x:c r="S528" s="10" t="s"/>
+      <x:c r="T528" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="U528"/>
+      <x:c r="V528" s="10" t="s"/>
+      <x:c r="W528" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X528"/>
+      <x:c r="Y528" s="10" t="s"/>
+      <x:c r="Z528" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA528"/>
+      <x:c r="AB528" s="10" t="s"/>
+      <x:c r="AC528" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AD528"/>
+      <x:c r="AE528" s="10" t="s"/>
+      <x:c r="AF528" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG528"/>
+      <x:c r="AH528" s="10" t="s"/>
+      <x:c r="AI528" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AJ528"/>
+      <x:c r="AK528" s="10" t="s"/>
+    </x:row>
+    <x:row r="529" hidden="0">
+      <x:c r="A529">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="B529" s="2">
+        <x:v>43871.4599884259</x:v>
+      </x:c>
+      <x:c r="C529" s="2">
+        <x:v>43871.4608101852</x:v>
+      </x:c>
+      <x:c r="D529" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E529" s="10" t="s"/>
+      <x:c r="F529"/>
+      <x:c r="G529" s="10" t="s"/>
+      <x:c r="H529" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I529"/>
+      <x:c r="J529" s="10" t="s"/>
+      <x:c r="K529" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L529"/>
+      <x:c r="M529" s="10" t="s"/>
+      <x:c r="N529" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O529"/>
+      <x:c r="P529" s="10" t="s"/>
+      <x:c r="Q529" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R529"/>
+      <x:c r="S529" s="10" t="s"/>
+      <x:c r="T529" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U529"/>
+      <x:c r="V529" s="10" t="s"/>
+      <x:c r="W529" s="10" t="s"/>
+      <x:c r="X529"/>
+      <x:c r="Y529" s="10" t="s"/>
+      <x:c r="Z529" s="10" t="s"/>
+      <x:c r="AA529"/>
+      <x:c r="AB529" s="10" t="s"/>
+      <x:c r="AC529" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AD529"/>
+      <x:c r="AE529" s="10" t="s"/>
+      <x:c r="AF529" s="10" t="s"/>
+      <x:c r="AG529"/>
+      <x:c r="AH529" s="10" t="s"/>
+      <x:c r="AI529" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AJ529"/>
+      <x:c r="AK529" s="10" t="s"/>
+    </x:row>
+    <x:row r="530" hidden="0">
+      <x:c r="A530">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="B530" s="2">
+        <x:v>43871.5064583333</x:v>
+      </x:c>
+      <x:c r="C530" s="2">
+        <x:v>43871.5071527778</x:v>
+      </x:c>
+      <x:c r="D530" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E530" s="10" t="s"/>
+      <x:c r="F530"/>
+      <x:c r="G530" s="10" t="s"/>
+      <x:c r="H530" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I530"/>
+      <x:c r="J530" s="10" t="s"/>
+      <x:c r="K530" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L530"/>
+      <x:c r="M530" s="10" t="s"/>
+      <x:c r="N530" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="O530"/>
+      <x:c r="P530" s="10" t="s"/>
+      <x:c r="Q530" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="R530"/>
+      <x:c r="S530" s="10" t="s"/>
+      <x:c r="T530" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U530"/>
+      <x:c r="V530" s="10" t="s"/>
+      <x:c r="W530" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X530"/>
+      <x:c r="Y530" s="10" t="s"/>
+      <x:c r="Z530" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA530"/>
+      <x:c r="AB530" s="10" t="s"/>
+      <x:c r="AC530" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD530"/>
+      <x:c r="AE530" s="10" t="s"/>
+      <x:c r="AF530" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG530"/>
+      <x:c r="AH530" s="10" t="s"/>
+      <x:c r="AI530" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AJ530"/>
+      <x:c r="AK530" s="10" t="s"/>
+    </x:row>
+    <x:row r="531" hidden="0">
+      <x:c r="A531">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="B531" s="2">
+        <x:v>43871.5421527778</x:v>
+      </x:c>
+      <x:c r="C531" s="2">
+        <x:v>43871.5478009259</x:v>
+      </x:c>
+      <x:c r="D531" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E531" s="10" t="s"/>
+      <x:c r="F531"/>
+      <x:c r="G531" s="10" t="s"/>
+      <x:c r="H531" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I531"/>
+      <x:c r="J531" s="10" t="s"/>
+      <x:c r="K531" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L531"/>
+      <x:c r="M531" s="10" t="s"/>
+      <x:c r="N531" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="O531"/>
+      <x:c r="P531" s="10" t="s"/>
+      <x:c r="Q531" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R531"/>
+      <x:c r="S531" s="10" t="s"/>
+      <x:c r="T531" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U531"/>
+      <x:c r="V531" s="10" t="s"/>
+      <x:c r="W531" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X531"/>
+      <x:c r="Y531" s="10" t="s"/>
+      <x:c r="Z531" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA531"/>
+      <x:c r="AB531" s="10" t="s"/>
+      <x:c r="AC531" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD531"/>
+      <x:c r="AE531" s="10" t="s"/>
+      <x:c r="AF531" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AG531"/>
+      <x:c r="AH531" s="10" t="s"/>
+      <x:c r="AI531" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AJ531"/>
+      <x:c r="AK531" s="10" t="s"/>
+    </x:row>
+    <x:row r="532" hidden="0">
+      <x:c r="A532">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c r="B532" s="2">
+        <x:v>43871.5807175926</x:v>
+      </x:c>
+      <x:c r="C532" s="2">
+        <x:v>43871.5810300926</x:v>
+      </x:c>
+      <x:c r="D532" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E532" s="10" t="s"/>
+      <x:c r="F532"/>
+      <x:c r="G532" s="10" t="s"/>
+      <x:c r="H532" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I532"/>
+      <x:c r="J532" s="10" t="s"/>
+      <x:c r="K532" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L532"/>
+      <x:c r="M532" s="10" t="s"/>
+      <x:c r="N532" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O532"/>
+      <x:c r="P532" s="10" t="s"/>
+      <x:c r="Q532" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R532"/>
+      <x:c r="S532" s="10" t="s"/>
+      <x:c r="T532" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="U532"/>
+      <x:c r="V532" s="10" t="s"/>
+      <x:c r="W532" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X532"/>
+      <x:c r="Y532" s="10" t="s"/>
+      <x:c r="Z532" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA532"/>
+      <x:c r="AB532" s="10" t="s"/>
+      <x:c r="AC532" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD532"/>
+      <x:c r="AE532" s="10" t="s"/>
+      <x:c r="AF532" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AG532"/>
+      <x:c r="AH532" s="10" t="s"/>
+      <x:c r="AI532" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ532"/>
+      <x:c r="AK532" s="10" t="s"/>
+    </x:row>
+    <x:row r="533" hidden="0">
+      <x:c r="A533">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="B533" s="2">
+        <x:v>43871.5925810185</x:v>
+      </x:c>
+      <x:c r="C533" s="2">
+        <x:v>43871.592974537</x:v>
+      </x:c>
+      <x:c r="D533" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E533" s="10" t="s"/>
+      <x:c r="F533"/>
+      <x:c r="G533" s="10" t="s"/>
+      <x:c r="H533" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I533"/>
+      <x:c r="J533" s="10" t="s"/>
+      <x:c r="K533" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L533"/>
+      <x:c r="M533" s="10" t="s"/>
+      <x:c r="N533" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O533"/>
+      <x:c r="P533" s="10" t="s"/>
+      <x:c r="Q533" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="R533"/>
+      <x:c r="S533" s="10" t="s"/>
+      <x:c r="T533" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U533"/>
+      <x:c r="V533" s="10" t="s"/>
+      <x:c r="W533" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X533"/>
+      <x:c r="Y533" s="10" t="s"/>
+      <x:c r="Z533" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA533"/>
+      <x:c r="AB533" s="10" t="s"/>
+      <x:c r="AC533" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD533"/>
+      <x:c r="AE533" s="10" t="s"/>
+      <x:c r="AF533" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG533"/>
+      <x:c r="AH533" s="10" t="s"/>
+      <x:c r="AI533" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ533"/>
+      <x:c r="AK533" s="10" t="s"/>
+    </x:row>
+    <x:row r="534" hidden="0">
+      <x:c r="A534">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="B534" s="2">
+        <x:v>43871.7094675926</x:v>
+      </x:c>
+      <x:c r="C534" s="2">
+        <x:v>43871.7101157407</x:v>
+      </x:c>
+      <x:c r="D534" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E534" s="10" t="s"/>
+      <x:c r="F534"/>
+      <x:c r="G534" s="10" t="s"/>
+      <x:c r="H534" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I534"/>
+      <x:c r="J534" s="10" t="s"/>
+      <x:c r="K534" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="L534"/>
+      <x:c r="M534" s="10" t="s"/>
+      <x:c r="N534" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O534"/>
+      <x:c r="P534" s="10" t="s"/>
+      <x:c r="Q534" s="7" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="R534"/>
+      <x:c r="S534" s="10" t="s"/>
+      <x:c r="T534" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U534"/>
+      <x:c r="V534" s="10" t="s"/>
+      <x:c r="W534" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X534"/>
+      <x:c r="Y534" s="10" t="s"/>
+      <x:c r="Z534" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AA534"/>
+      <x:c r="AB534" s="10" t="s"/>
+      <x:c r="AC534" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD534"/>
+      <x:c r="AE534" s="10" t="s"/>
+      <x:c r="AF534" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AG534"/>
+      <x:c r="AH534" s="10" t="s"/>
+      <x:c r="AI534" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AJ534"/>
+      <x:c r="AK534" s="10" t="s"/>
+    </x:row>
+    <x:row r="535" hidden="0">
+      <x:c r="A535">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c r="B535" s="2">
+        <x:v>43871.7581944444</x:v>
+      </x:c>
+      <x:c r="C535" s="2">
+        <x:v>43871.7606481481</x:v>
+      </x:c>
+      <x:c r="D535" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E535" s="10" t="s"/>
+      <x:c r="F535"/>
+      <x:c r="G535" s="10" t="s"/>
+      <x:c r="H535" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I535"/>
+      <x:c r="J535" s="10" t="s"/>
+      <x:c r="K535" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="L535"/>
+      <x:c r="M535" s="10" t="s"/>
+      <x:c r="N535" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="O535"/>
+      <x:c r="P535" s="10" t="s"/>
+      <x:c r="Q535" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="R535"/>
+      <x:c r="S535" s="10" t="s"/>
+      <x:c r="T535" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="U535"/>
+      <x:c r="V535" s="10" t="s"/>
+      <x:c r="W535" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X535"/>
+      <x:c r="Y535" s="10" t="s"/>
+      <x:c r="Z535" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA535"/>
+      <x:c r="AB535" s="10" t="s"/>
+      <x:c r="AC535" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AD535"/>
+      <x:c r="AE535" s="10" t="s"/>
+      <x:c r="AF535" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG535"/>
+      <x:c r="AH535" s="10" t="s"/>
+      <x:c r="AI535" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AJ535"/>
+      <x:c r="AK535" s="10" t="s"/>
+    </x:row>
+    <x:row r="536" hidden="0">
+      <x:c r="A536">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="B536" s="2">
+        <x:v>43871.8760648148</x:v>
+      </x:c>
+      <x:c r="C536" s="2">
+        <x:v>43871.877962963</x:v>
+      </x:c>
+      <x:c r="D536" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E536" s="10" t="s"/>
+      <x:c r="F536"/>
+      <x:c r="G536" s="10" t="s"/>
+      <x:c r="H536" s="3">
+        <x:v>43871</x:v>
+      </x:c>
+      <x:c r="I536"/>
+      <x:c r="J536" s="10" t="s"/>
+      <x:c r="K536" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="L536"/>
+      <x:c r="M536" s="10" t="s"/>
+      <x:c r="N536" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O536"/>
+      <x:c r="P536" s="10" t="s"/>
+      <x:c r="Q536" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="R536"/>
+      <x:c r="S536" s="10" t="s"/>
+      <x:c r="T536" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U536"/>
+      <x:c r="V536" s="10" t="s"/>
+      <x:c r="W536" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="X536"/>
+      <x:c r="Y536" s="10" t="s"/>
+      <x:c r="Z536" s="10" t="s"/>
+      <x:c r="AA536"/>
+      <x:c r="AB536" s="10" t="s"/>
+      <x:c r="AC536" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD536"/>
+      <x:c r="AE536" s="10" t="s"/>
+      <x:c r="AF536" s="10" t="s"/>
+      <x:c r="AG536"/>
+      <x:c r="AH536" s="10" t="s"/>
+      <x:c r="AI536" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AJ536"/>
+      <x:c r="AK536" s="10" t="s"/>
+    </x:row>
+    <x:row r="537" hidden="0">
+      <x:c r="A537">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="B537" s="2">
+        <x:v>43872.4715625</x:v>
+      </x:c>
+      <x:c r="C537" s="2">
+        <x:v>43872.4725</x:v>
+      </x:c>
+      <x:c r="D537" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E537" s="10" t="s"/>
+      <x:c r="F537"/>
+      <x:c r="G537" s="10" t="s"/>
+      <x:c r="H537" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I537"/>
+      <x:c r="J537" s="10" t="s"/>
+      <x:c r="K537" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L537"/>
+      <x:c r="M537" s="10" t="s"/>
+      <x:c r="N537" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O537"/>
+      <x:c r="P537" s="10" t="s"/>
+      <x:c r="Q537" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="R537"/>
+      <x:c r="S537" s="10" t="s"/>
+      <x:c r="T537" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U537"/>
+      <x:c r="V537" s="10" t="s"/>
+      <x:c r="W537" s="10" t="s"/>
+      <x:c r="X537"/>
+      <x:c r="Y537" s="10" t="s"/>
+      <x:c r="Z537" s="10" t="s"/>
+      <x:c r="AA537"/>
+      <x:c r="AB537" s="10" t="s"/>
+      <x:c r="AC537" s="10" t="s"/>
+      <x:c r="AD537"/>
+      <x:c r="AE537" s="10" t="s"/>
+      <x:c r="AF537" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AG537"/>
+      <x:c r="AH537" s="10" t="s"/>
+      <x:c r="AI537" s="10" t="s"/>
+      <x:c r="AJ537"/>
+      <x:c r="AK537" s="10" t="s"/>
+    </x:row>
+    <x:row r="538" hidden="0">
+      <x:c r="A538">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c r="B538" s="2">
+        <x:v>43872.5007407407</x:v>
+      </x:c>
+      <x:c r="C538" s="2">
+        <x:v>43872.5015277778</x:v>
+      </x:c>
+      <x:c r="D538" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E538" s="10" t="s"/>
+      <x:c r="F538"/>
+      <x:c r="G538" s="10" t="s"/>
+      <x:c r="H538" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I538"/>
+      <x:c r="J538" s="10" t="s"/>
+      <x:c r="K538" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L538"/>
+      <x:c r="M538" s="10" t="s"/>
+      <x:c r="N538" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O538"/>
+      <x:c r="P538" s="10" t="s"/>
+      <x:c r="Q538" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R538"/>
+      <x:c r="S538" s="10" t="s"/>
+      <x:c r="T538" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U538"/>
+      <x:c r="V538" s="10" t="s"/>
+      <x:c r="W538" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X538"/>
+      <x:c r="Y538" s="10" t="s"/>
+      <x:c r="Z538" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA538"/>
+      <x:c r="AB538" s="10" t="s"/>
+      <x:c r="AC538" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AD538"/>
+      <x:c r="AE538" s="10" t="s"/>
+      <x:c r="AF538" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG538"/>
+      <x:c r="AH538" s="10" t="s"/>
+      <x:c r="AI538" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AJ538"/>
+      <x:c r="AK538" s="10" t="s"/>
+    </x:row>
+    <x:row r="539" hidden="0">
+      <x:c r="A539">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="B539" s="2">
+        <x:v>43872.5413194444</x:v>
+      </x:c>
+      <x:c r="C539" s="2">
+        <x:v>43872.542037037</x:v>
+      </x:c>
+      <x:c r="D539" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E539" s="10" t="s"/>
+      <x:c r="F539"/>
+      <x:c r="G539" s="10" t="s"/>
+      <x:c r="H539" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I539"/>
+      <x:c r="J539" s="10" t="s"/>
+      <x:c r="K539" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L539"/>
+      <x:c r="M539" s="10" t="s"/>
+      <x:c r="N539" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O539"/>
+      <x:c r="P539" s="10" t="s"/>
+      <x:c r="Q539" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R539"/>
+      <x:c r="S539" s="10" t="s"/>
+      <x:c r="T539" s="7" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="U539"/>
+      <x:c r="V539" s="10" t="s"/>
+      <x:c r="W539" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X539"/>
+      <x:c r="Y539" s="10" t="s"/>
+      <x:c r="Z539" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA539"/>
+      <x:c r="AB539" s="10" t="s"/>
+      <x:c r="AC539" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD539"/>
+      <x:c r="AE539" s="10" t="s"/>
+      <x:c r="AF539" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG539"/>
+      <x:c r="AH539" s="10" t="s"/>
+      <x:c r="AI539" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AJ539"/>
+      <x:c r="AK539" s="10" t="s"/>
+    </x:row>
+    <x:row r="540" hidden="0">
+      <x:c r="A540">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="B540" s="2">
+        <x:v>43872.5815162037</x:v>
+      </x:c>
+      <x:c r="C540" s="2">
+        <x:v>43872.5819444444</x:v>
+      </x:c>
+      <x:c r="D540" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E540" s="10" t="s"/>
+      <x:c r="F540"/>
+      <x:c r="G540" s="10" t="s"/>
+      <x:c r="H540" s="3">
+        <x:v>43872</x:v>
+      </x:c>
+      <x:c r="I540"/>
+      <x:c r="J540" s="10" t="s"/>
+      <x:c r="K540" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L540"/>
+      <x:c r="M540" s="10" t="s"/>
+      <x:c r="N540" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O540"/>
+      <x:c r="P540" s="10" t="s"/>
+      <x:c r="Q540" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R540"/>
+      <x:c r="S540" s="10" t="s"/>
+      <x:c r="T540" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U540"/>
+      <x:c r="V540" s="10" t="s"/>
+      <x:c r="W540" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="X540"/>
+      <x:c r="Y540" s="10" t="s"/>
+      <x:c r="Z540" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AA540"/>
+      <x:c r="AB540" s="10" t="s"/>
+      <x:c r="AC540" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD540"/>
+      <x:c r="AE540" s="10" t="s"/>
+      <x:c r="AF540" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AG540"/>
+      <x:c r="AH540" s="10" t="s"/>
+      <x:c r="AI540" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AJ540"/>
+      <x:c r="AK540" s="10" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="Rc1904e0f8e28477c"/>
+    <x:tablePart r:id="R0d4e414308184233"/>
   </x:tableParts>
 </x:worksheet>
 </file>